--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>272.4565964795402</v>
+        <v>281.7410996606752</v>
       </c>
       <c r="R2">
-        <v>272.4565964795402</v>
+        <v>1126.964398642701</v>
       </c>
       <c r="S2">
-        <v>0.0411229830534347</v>
+        <v>0.03280102223112093</v>
       </c>
       <c r="T2">
-        <v>0.0411229830534347</v>
+        <v>0.01945717156303542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>33.07876756949385</v>
+        <v>38.048838221056</v>
       </c>
       <c r="R3">
-        <v>33.07876756949385</v>
+        <v>228.293029326336</v>
       </c>
       <c r="S3">
-        <v>0.004992713025727571</v>
+        <v>0.004429743441266835</v>
       </c>
       <c r="T3">
-        <v>0.004992713025727571</v>
+        <v>0.003941505733098045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>106.265863276087</v>
+        <v>1.4572115631015</v>
       </c>
       <c r="R4">
-        <v>106.265863276087</v>
+        <v>8.743269378609</v>
       </c>
       <c r="S4">
-        <v>0.01603913926521245</v>
+        <v>0.0001696523117653265</v>
       </c>
       <c r="T4">
-        <v>0.01603913926521245</v>
+        <v>0.0001509535638626371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>40.70856946081825</v>
+        <v>2.632971740335</v>
       </c>
       <c r="R5">
-        <v>40.70856946081825</v>
+        <v>15.79783044201</v>
       </c>
       <c r="S5">
-        <v>0.006144310079835083</v>
+        <v>0.0003065373305231549</v>
       </c>
       <c r="T5">
-        <v>0.006144310079835083</v>
+        <v>0.000272751382034905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>2281.060528326028</v>
+        <v>109.575075017136</v>
       </c>
       <c r="R6">
-        <v>2281.060528326028</v>
+        <v>657.4504501028159</v>
       </c>
       <c r="S6">
-        <v>0.3442897498620636</v>
+        <v>0.01275701158241589</v>
       </c>
       <c r="T6">
-        <v>0.3442897498620636</v>
+        <v>0.01135095857265056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>276.9419863692297</v>
+        <v>44.791586778423</v>
       </c>
       <c r="R7">
-        <v>276.9419863692297</v>
+        <v>179.166347113692</v>
       </c>
       <c r="S7">
-        <v>0.04179998120581969</v>
+        <v>0.005214751541240272</v>
       </c>
       <c r="T7">
-        <v>0.04179998120581969</v>
+        <v>0.003093327844528215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>889.6788309024308</v>
+        <v>2423.466526101087</v>
       </c>
       <c r="R8">
-        <v>889.6788309024308</v>
+        <v>14540.79915660652</v>
       </c>
       <c r="S8">
-        <v>0.1342828470990889</v>
+        <v>0.2821461955488864</v>
       </c>
       <c r="T8">
-        <v>0.1342828470990889</v>
+        <v>0.2510485905273333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>340.8201972774186</v>
+        <v>327.2865971518578</v>
       </c>
       <c r="R9">
-        <v>340.8201972774186</v>
+        <v>2945.57937436672</v>
       </c>
       <c r="S9">
-        <v>0.05144137957386559</v>
+        <v>0.03810354599330906</v>
       </c>
       <c r="T9">
-        <v>0.05144137957386559</v>
+        <v>0.05085577087316894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>859.990654150053</v>
+        <v>12.53456967718667</v>
       </c>
       <c r="R10">
-        <v>859.990654150053</v>
+        <v>112.81112709468</v>
       </c>
       <c r="S10">
-        <v>0.129801889745696</v>
+        <v>0.001459306786031975</v>
       </c>
       <c r="T10">
-        <v>0.129801889745696</v>
+        <v>0.001947697244690418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>104.4108725137907</v>
+        <v>22.64816487391111</v>
       </c>
       <c r="R11">
-        <v>104.4108725137907</v>
+        <v>203.8334838652</v>
       </c>
       <c r="S11">
-        <v>0.01575915795931692</v>
+        <v>0.002636757506867007</v>
       </c>
       <c r="T11">
-        <v>0.01575915795931692</v>
+        <v>0.003519208832712931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>335.4209457706592</v>
+        <v>942.5374101218133</v>
       </c>
       <c r="R12">
-        <v>335.4209457706592</v>
+        <v>8482.83669109632</v>
       </c>
       <c r="S12">
-        <v>0.05062644856803702</v>
+        <v>0.109732625379484</v>
       </c>
       <c r="T12">
-        <v>0.05062644856803702</v>
+        <v>0.1464571631887032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>128.4938215204891</v>
+        <v>385.2860350839733</v>
       </c>
       <c r="R13">
-        <v>128.4938215204891</v>
+        <v>2311.71621050384</v>
       </c>
       <c r="S13">
-        <v>0.0193940954747812</v>
+        <v>0.04485598947881796</v>
       </c>
       <c r="T13">
-        <v>0.0193940954747812</v>
+        <v>0.03991204954388614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>271.4323733016711</v>
+        <v>1686.427937940668</v>
       </c>
       <c r="R14">
-        <v>271.4323733016711</v>
+        <v>10118.56762764401</v>
       </c>
       <c r="S14">
-        <v>0.04096839288042853</v>
+        <v>0.1963382706683467</v>
       </c>
       <c r="T14">
-        <v>0.04096839288042853</v>
+        <v>0.1746982482679698</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>32.95441733948368</v>
+        <v>227.7503135305956</v>
       </c>
       <c r="R15">
-        <v>32.95441733948368</v>
+        <v>2049.75282177536</v>
       </c>
       <c r="S15">
-        <v>0.004973944339384597</v>
+        <v>0.02651527628116423</v>
       </c>
       <c r="T15">
-        <v>0.004973944339384597</v>
+        <v>0.03538922113523099</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>105.8663869499861</v>
+        <v>8.722484204343333</v>
       </c>
       <c r="R16">
-        <v>105.8663869499861</v>
+        <v>78.50235783909001</v>
       </c>
       <c r="S16">
-        <v>0.01597884467737437</v>
+        <v>0.001015494007235186</v>
       </c>
       <c r="T16">
-        <v>0.01597884467737437</v>
+        <v>0.001355352348678975</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>40.55553715799129</v>
+        <v>15.76027462112223</v>
       </c>
       <c r="R17">
-        <v>40.55553715799129</v>
+        <v>141.8424715901</v>
       </c>
       <c r="S17">
-        <v>0.006121212291500735</v>
+        <v>0.001834851638041492</v>
       </c>
       <c r="T17">
-        <v>0.006121212291500735</v>
+        <v>0.002448926787729479</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>22.4013115348323</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>22.4013115348323</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.03872592306179204</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.03872592306179204</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N18">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O18">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P18">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q18">
-        <v>154.484117296208</v>
+        <v>655.8875081889067</v>
       </c>
       <c r="R18">
-        <v>154.484117296208</v>
+        <v>5902.98757370016</v>
       </c>
       <c r="S18">
-        <v>0.02331691660133411</v>
+        <v>0.07636010778381187</v>
       </c>
       <c r="T18">
-        <v>0.02331691660133411</v>
+        <v>0.1019157677867024</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.4013115348323</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>22.4013115348323</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.03872592306179204</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.03872592306179204</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N19">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O19">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P19">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q19">
-        <v>18.75581019233435</v>
+        <v>268.1106285834867</v>
       </c>
       <c r="R19">
-        <v>18.75581019233435</v>
+        <v>1608.66377150092</v>
       </c>
       <c r="S19">
-        <v>0.002830890771810412</v>
+        <v>0.03121412779022472</v>
       </c>
       <c r="T19">
-        <v>0.002830890771810412</v>
+        <v>0.02777376732311183</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N20">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O20">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P20">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q20">
-        <v>60.25322307862934</v>
+        <v>337.088837768477</v>
       </c>
       <c r="R20">
-        <v>60.25322307862934</v>
+        <v>2022.533026610862</v>
       </c>
       <c r="S20">
-        <v>0.009094264200585659</v>
+        <v>0.03924474801448297</v>
       </c>
       <c r="T20">
-        <v>0.009094264200585659</v>
+        <v>0.03491926820232185</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N21">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O21">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P21">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q21">
-        <v>23.08194222788116</v>
+        <v>45.52349185058134</v>
       </c>
       <c r="R21">
-        <v>23.08194222788116</v>
+        <v>409.7114266552321</v>
       </c>
       <c r="S21">
-        <v>0.003483851488061861</v>
+        <v>0.005299961809006849</v>
       </c>
       <c r="T21">
-        <v>0.003483851488061861</v>
+        <v>0.00707371548681396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N22">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O22">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P22">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q22">
-        <v>149.741257881682</v>
+        <v>1.743479218262</v>
       </c>
       <c r="R22">
-        <v>149.741257881682</v>
+        <v>15.691312964358</v>
       </c>
       <c r="S22">
-        <v>0.02260105752561883</v>
+        <v>0.0002029803272102844</v>
       </c>
       <c r="T22">
-        <v>0.02260105752561883</v>
+        <v>0.0002709123453806567</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N23">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O23">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P23">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q23">
-        <v>18.17998290015253</v>
+        <v>3.150216226513334</v>
       </c>
       <c r="R23">
-        <v>18.17998290015253</v>
+        <v>28.35194603862</v>
       </c>
       <c r="S23">
-        <v>0.002743978814881976</v>
+        <v>0.0003667562616996642</v>
       </c>
       <c r="T23">
-        <v>0.002743978814881976</v>
+        <v>0.0004894996495752212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N24">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O24">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P24">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q24">
-        <v>58.40337228920438</v>
+        <v>131.100981469888</v>
       </c>
       <c r="R24">
-        <v>58.40337228920438</v>
+        <v>1179.908833228992</v>
       </c>
       <c r="S24">
-        <v>0.008815058691716221</v>
+        <v>0.01526311288234029</v>
       </c>
       <c r="T24">
-        <v>0.008815058691716221</v>
+        <v>0.0203712633908643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N25">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O25">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P25">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q25">
-        <v>22.37329716509361</v>
+        <v>53.59084616028399</v>
       </c>
       <c r="R25">
-        <v>22.37329716509361</v>
+        <v>321.545076961704</v>
       </c>
       <c r="S25">
-        <v>0.003376892804423967</v>
+        <v>0.006239183911772785</v>
       </c>
       <c r="T25">
-        <v>0.003376892804423967</v>
+        <v>0.005551513193520903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>22.832077</v>
+      </c>
+      <c r="H26">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J26">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>157.9168162223035</v>
+      </c>
+      <c r="R26">
+        <v>947.5008973338209</v>
+      </c>
+      <c r="S26">
+        <v>0.0183850812175225</v>
+      </c>
+      <c r="T26">
+        <v>0.01635871331672752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>22.832077</v>
+      </c>
+      <c r="H27">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I27">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J27">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>21.32649939985066</v>
+      </c>
+      <c r="R27">
+        <v>191.938494598656</v>
+      </c>
+      <c r="S27">
+        <v>0.002482885818820874</v>
+      </c>
+      <c r="T27">
+        <v>0.003313840458007964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>22.832077</v>
+      </c>
+      <c r="H28">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I28">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J28">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.816771890521</v>
+      </c>
+      <c r="R28">
+        <v>7.350947014688999</v>
+      </c>
+      <c r="S28">
+        <v>9.509068066746605E-05</v>
+      </c>
+      <c r="T28">
+        <v>0.0001269149561315766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>22.832077</v>
+      </c>
+      <c r="H29">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I29">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J29">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>1.475789350356667</v>
+      </c>
+      <c r="R29">
+        <v>13.28210415321</v>
+      </c>
+      <c r="S29">
+        <v>0.0001718151854585707</v>
+      </c>
+      <c r="T29">
+        <v>0.0002293170747348933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>22.832077</v>
+      </c>
+      <c r="H30">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I30">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J30">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>61.417191190304</v>
+      </c>
+      <c r="R30">
+        <v>552.7547207127359</v>
+      </c>
+      <c r="S30">
+        <v>0.007150347095373931</v>
+      </c>
+      <c r="T30">
+        <v>0.009543374614263456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>22.832077</v>
+      </c>
+      <c r="H31">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I31">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J31">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>25.105832220122</v>
+      </c>
+      <c r="R31">
+        <v>150.634993320732</v>
+      </c>
+      <c r="S31">
+        <v>0.002922885449708337</v>
+      </c>
+      <c r="T31">
+        <v>0.002600730699184594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.082339</v>
+      </c>
+      <c r="H32">
+        <v>50.164678</v>
+      </c>
+      <c r="I32">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J32">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>173.4806307060245</v>
+      </c>
+      <c r="R32">
+        <v>693.922522824098</v>
+      </c>
+      <c r="S32">
+        <v>0.0201970604619296</v>
+      </c>
+      <c r="T32">
+        <v>0.01198065315488596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.082339</v>
+      </c>
+      <c r="H33">
+        <v>50.164678</v>
+      </c>
+      <c r="I33">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J33">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>23.42837612322133</v>
+      </c>
+      <c r="R33">
+        <v>140.570256739328</v>
+      </c>
+      <c r="S33">
+        <v>0.002727591703810291</v>
+      </c>
+      <c r="T33">
+        <v>0.00242696185019789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.082339</v>
+      </c>
+      <c r="H34">
+        <v>50.164678</v>
+      </c>
+      <c r="I34">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J34">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>0.897270513047</v>
+      </c>
+      <c r="R34">
+        <v>5.383623078282</v>
+      </c>
+      <c r="S34">
+        <v>0.0001044625369931141</v>
+      </c>
+      <c r="T34">
+        <v>9.294887930001089E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.082339</v>
+      </c>
+      <c r="H35">
+        <v>50.164678</v>
+      </c>
+      <c r="I35">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J35">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>1.621238785163334</v>
+      </c>
+      <c r="R35">
+        <v>9.727432710980002</v>
+      </c>
+      <c r="S35">
+        <v>0.0001887487821199859</v>
+      </c>
+      <c r="T35">
+        <v>0.0001679452583891493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.082339</v>
+      </c>
+      <c r="H36">
+        <v>50.164678</v>
+      </c>
+      <c r="I36">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J36">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>67.470287957728</v>
+      </c>
+      <c r="R36">
+        <v>404.821727746368</v>
+      </c>
+      <c r="S36">
+        <v>0.007855064163187358</v>
+      </c>
+      <c r="T36">
+        <v>0.006989294265810049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.082339</v>
+      </c>
+      <c r="H37">
+        <v>50.164678</v>
+      </c>
+      <c r="I37">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J37">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>27.580188811654</v>
+      </c>
+      <c r="R37">
+        <v>110.320755246616</v>
+      </c>
+      <c r="S37">
+        <v>0.003210956397341861</v>
+      </c>
+      <c r="T37">
+        <v>0.001904700684761911</v>
       </c>
     </row>
   </sheetData>
